--- a/INTLINE/data/223/SPSE/BVSP Index - Daily.xlsx
+++ b/INTLINE/data/223/SPSE/BVSP Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KOQ2"/>
+  <dimension ref="A1:KPI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39569,15 +39569,105 @@
       </c>
       <c r="KOO1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="KOP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="KOQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="KOR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="KOS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="KOT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="KOU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="KOV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="KOW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="KOX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="KOY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="KOZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="KPA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="KPB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="KPC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="KPD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="KPE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
+      </c>
+      <c r="KPF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="KPG1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="KOP1" s="1" t="inlineStr">
+      <c r="KPH1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="KOQ1" s="1" t="inlineStr">
+      <c r="KPI1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -62382,17 +62472,71 @@
       <c r="KON2" t="n">
         <v>118885</v>
       </c>
-      <c r="KOO2" t="inlineStr">
+      <c r="KOO2" t="n">
+        <v>118228</v>
+      </c>
+      <c r="KOP2" t="n">
+        <v>118862</v>
+      </c>
+      <c r="KOQ2" t="n">
+        <v>118322</v>
+      </c>
+      <c r="KOR2" t="n">
+        <v>116953</v>
+      </c>
+      <c r="KOS2" t="n">
+        <v>116147</v>
+      </c>
+      <c r="KOT2" t="n">
+        <v>116782</v>
+      </c>
+      <c r="KOU2" t="n">
+        <v>116182</v>
+      </c>
+      <c r="KOV2" t="n">
+        <v>115687</v>
+      </c>
+      <c r="KOW2" t="n">
+        <v>115057</v>
+      </c>
+      <c r="KOX2" t="n">
+        <v>114344</v>
+      </c>
+      <c r="KOY2" t="n">
+        <v>111078</v>
+      </c>
+      <c r="KOZ2" t="n">
+        <v>110685</v>
+      </c>
+      <c r="KPA2" t="n">
+        <v>108213</v>
+      </c>
+      <c r="KPB2" t="n">
+        <v>109349</v>
+      </c>
+      <c r="KPC2" t="n">
+        <v>109919</v>
+      </c>
+      <c r="KPD2" t="n">
+        <v>107876</v>
+      </c>
+      <c r="KPE2" t="n">
+        <v>106639</v>
+      </c>
+      <c r="KPF2" t="n">
+        <v>106528</v>
+      </c>
+      <c r="KPG2" t="inlineStr">
         <is>
           <t>BVSP</t>
         </is>
       </c>
-      <c r="KOP2" t="inlineStr">
+      <c r="KPH2" t="inlineStr">
         <is>
           <t>Bovespa Index, Close Price</t>
         </is>
       </c>
-      <c r="KOQ2" t="inlineStr">
+      <c r="KPI2" t="inlineStr">
         <is>
           <t>Index: 1992.03.11=1.51</t>
         </is>
